--- a/qizhognchengji.xlsx
+++ b/qizhognchengji.xlsx
@@ -7234,11 +7234,11 @@
   <dimension ref="A1:AK679"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="5" ySplit="3" topLeftCell="R6" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="5" ySplit="3" topLeftCell="F4" activePane="bottomRight" state="frozen"/>
       <selection/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="A1" sqref="A1:AK1"/>
+      <selection pane="bottomRight" activeCell="A15" sqref="A15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="18.5"/>
